--- a/7_Suspension/Fichiers_Suspension/Liste_A4.xlsx
+++ b/7_Suspension/Fichiers_Suspension/Liste_A4.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
   <si>
     <t>Nom Code Plaque</t>
   </si>
@@ -46,40 +46,49 @@
     <t>Statut code IMB</t>
   </si>
   <si>
-    <t>CEMRN2SP_1022</t>
-  </si>
-  <si>
-    <t>IMB/76540/C/URL6</t>
+    <t>CEMRJ1CO_1013</t>
+  </si>
+  <si>
+    <t>IMB/26198/C/02HU</t>
   </si>
   <si>
     <t>Probation</t>
   </si>
   <si>
-    <t>ZN_0319_76_0462</t>
-  </si>
-  <si>
     <t>SO</t>
   </si>
   <si>
+    <t>IMB/26198/C/02VU</t>
+  </si>
+  <si>
+    <t>ZN_0319_26_0020</t>
+  </si>
+  <si>
     <t>En attente accord Syndic</t>
   </si>
   <si>
-    <t>IMB/76540/C/UXFG</t>
-  </si>
-  <si>
-    <t>ZN_0319_76_0537</t>
-  </si>
-  <si>
-    <t>IMB/76540/C/UYIY</t>
-  </si>
-  <si>
-    <t>ZN_0319_76_0557</t>
-  </si>
-  <si>
-    <t>IMB/76540/C/UYJ6</t>
-  </si>
-  <si>
-    <t>ZN_0319_76_0558</t>
+    <t>IMB/26198/C/03NR</t>
+  </si>
+  <si>
+    <t>IMB/26198/C/03YY</t>
+  </si>
+  <si>
+    <t>ZN_0319_26_0007</t>
+  </si>
+  <si>
+    <t>IMB/26198/C/030S</t>
+  </si>
+  <si>
+    <t>IMB/26198/C/0374</t>
+  </si>
+  <si>
+    <t>ZN_0319_26_0026</t>
+  </si>
+  <si>
+    <t>IMB/26198/S/03YW</t>
+  </si>
+  <si>
+    <t>IMB/26198/S/03YX</t>
   </si>
 </sst>
 </file>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -503,41 +512,39 @@
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
@@ -546,39 +553,127 @@
         <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>14</v>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
